--- a/input/test-0001.xlsx
+++ b/input/test-0001.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="0" windowWidth="19500" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="34650" yWindow="0" windowWidth="19500" windowHeight="7950" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="6" r:id="rId1"/>
     <sheet name="driver" sheetId="5" r:id="rId2"/>
     <sheet name="common" sheetId="2" r:id="rId3"/>
     <sheet name="test" sheetId="3" r:id="rId4"/>
-    <sheet name="TEST-0001" sheetId="1" r:id="rId5"/>
-    <sheet name="TEST-0002" sheetId="7" r:id="rId6"/>
+    <sheet name="cmd-select-customer" sheetId="10" r:id="rId5"/>
+    <sheet name="TEST-0001" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TEST-0001'!$A$5:$B$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TEST-0002'!$A$5:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'cmd-select-customer'!$A$5:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TEST-0001'!$A$5:$B$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -227,9 +227,6 @@
     <t>D : Marine Machinery (Sales Support)</t>
   </si>
   <si>
-    <t>//*[@id="actionForm"]/table/tbody/tr[16]/td//input[@type="file"]</t>
-  </si>
-  <si>
     <t>D:\TuanPV\_MHI\_TEST\new-io-001.txt</t>
   </si>
   <si>
@@ -299,18 +296,6 @@
     <t>_1. Initialize variable of test case</t>
   </si>
   <si>
-    <t>_2. Pre-process</t>
-  </si>
-  <si>
-    <t>_3.1 Input value</t>
-  </si>
-  <si>
-    <t>_3.2 Select Customer</t>
-  </si>
-  <si>
-    <t>_3.3 Input value</t>
-  </si>
-  <si>
     <t>_4. Submit</t>
   </si>
   <si>
@@ -344,9 +329,6 @@
     <t>scrollTo</t>
   </si>
   <si>
-    <t>upload</t>
-  </si>
-  <si>
     <t>logout</t>
   </si>
   <si>
@@ -363,6 +345,68 @@
   </si>
   <si>
     <t>TEST-0002</t>
+  </si>
+  <si>
+    <t>${args[0]}</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>cmd-select-customer-code</t>
+  </si>
+  <si>
+    <t>${cmd-select-customer-code}</t>
+  </si>
+  <si>
+    <t>_2. Select Customer</t>
+  </si>
+  <si>
+    <t>uploadByVue</t>
+  </si>
+  <si>
+    <t>//*[@id="actionForm"]/table/tbody/tr[16]/td</t>
+  </si>
+  <si>
+    <t>_3. Remove variable</t>
+  </si>
+  <si>
+    <t>cmd-select-customer</t>
+  </si>
+  <si>
+    <t>btn-submit</t>
+  </si>
+  <si>
+    <t>${btn-submit}</t>
+  </si>
+  <si>
+    <t>_2. Choose Workflow Item for processing</t>
+  </si>
+  <si>
+    <t>_3.1. Input value</t>
+  </si>
+  <si>
+    <t>_3.2. Select Customer</t>
+  </si>
+  <si>
+    <t>_3.3. Input value</t>
+  </si>
+  <si>
+    <t>_5. Remove variable from initializing</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>_6. Logging</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>&gt; Create [Internal Order]
+ + By UID           : mhi0409
+ + Flow description : ${test-part}-${test-time-long}</t>
   </si>
 </sst>
 </file>
@@ -417,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -477,11 +521,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -542,10 +648,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -560,6 +666,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,16 +981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>108</v>
+      <c r="A1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="b">
         <v>1</v>
@@ -874,7 +998,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9" t="b">
         <v>0</v>
@@ -949,16 +1073,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="25"/>
     </row>
@@ -977,7 +1101,7 @@
     <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="25"/>
     </row>
@@ -996,7 +1120,7 @@
     <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="25"/>
     </row>
@@ -1006,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="21" t="b">
         <v>1</v>
@@ -1390,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1444,12 +1568,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>2</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1459,13 +1580,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1478,7 +1602,7 @@
     <col min="6" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1611,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1620,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
@@ -1505,10 +1629,10 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1520,371 +1644,139 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A14" si="0">ROW()-ROW($A$5)</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <f>ROW()-ROW($A$5)</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <f t="shared" ref="A11:A33" si="0">ROW()-ROW($A$5)</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="15">
-        <v>700</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B33"/>
-  <mergeCells count="6">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B17:D17"/>
+  <autoFilter ref="A5:B14"/>
+  <mergeCells count="3">
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1892,21 +1784,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="56.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="3.625" style="1"/>
   </cols>
@@ -1918,7 +1809,10 @@
       <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -1927,7 +1821,8 @@
       <c r="B2" s="11">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -1936,7 +1831,8 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -1951,12 +1847,12 @@
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
@@ -1967,12 +1863,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1982,72 +1878,71 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <f>ROW()-ROW($A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <f t="shared" ref="A11:A33" si="0">ROW()-ROW($A$5)</f>
+        <f>ROW()-ROW($A$5)</f>
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <f t="shared" ref="A12:A30" si="0">ROW()-ROW($A$5)</f>
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
@@ -2055,14 +1950,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -2070,15 +1966,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
@@ -2086,50 +1981,51 @@
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19" si="1">ROW()-ROW($A$5)</f>
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
@@ -2137,25 +2033,20 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
@@ -2163,10 +2054,14 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
@@ -2174,20 +2069,30 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
@@ -2195,14 +2100,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>82</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C25" s="15">
+        <v>700</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
@@ -2210,15 +2114,14 @@
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
@@ -2226,28 +2129,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="15">
-        <v>700</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
@@ -2255,13 +2148,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2270,55 +2163,67 @@
         <v>25</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($A$5)</f>
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <f>ROW()-ROW($A$5)</f>
+        <v>29</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B33"/>
-  <mergeCells count="6">
+  <autoFilter ref="A5:B30"/>
+  <mergeCells count="9">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/test-0001.xlsx
+++ b/input/test-0001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34650" yWindow="0" windowWidth="19500" windowHeight="7950" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="42570" yWindow="0" windowWidth="19500" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="test" sheetId="3" r:id="rId4"/>
     <sheet name="cmd-select-customer" sheetId="10" r:id="rId5"/>
     <sheet name="TEST-0001" sheetId="1" r:id="rId6"/>
+    <sheet name="TEST-0002" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'cmd-select-customer'!$A$5:$B$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TEST-0001'!$A$5:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TEST-0001'!$A$5:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TEST-0002'!$A$5:$D$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
   <si>
     <t>#</t>
   </si>
@@ -200,9 +202,6 @@
     <t>test-name</t>
   </si>
   <si>
-    <t>NEW-IO</t>
-  </si>
-  <si>
     <t>test-part</t>
   </si>
   <si>
@@ -299,9 +298,6 @@
     <t>_4. Submit</t>
   </si>
   <si>
-    <t xml:space="preserve"> | ${test-part}-${test-time-long}</t>
-  </si>
-  <si>
     <t>set</t>
   </si>
   <si>
@@ -404,16 +400,127 @@
     <t>log</t>
   </si>
   <si>
-    <t>&gt; Create [Internal Order]
+    <t>A. APPLY [INTERNAL ORDER]</t>
+  </si>
+  <si>
+    <t>B. APPROVE [INTERNAL ORDER] BY [HOD of Same Department Applicant]</t>
+  </si>
+  <si>
+    <t>mhi0407</t>
+  </si>
+  <si>
+    <t>workflow-description</t>
+  </si>
+  <si>
+    <t>${test-part}-${test-time-long}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | ${workflow-description}</t>
+  </si>
+  <si>
+    <t>${workflow-description}</t>
+  </si>
+  <si>
+    <t>btn-process</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'imui-operation-parts')]/input[@type='button' and @value='Process']</t>
+  </si>
+  <si>
+    <t>wfGoApprove</t>
+  </si>
+  <si>
+    <t>_3. Input value</t>
+  </si>
+  <si>
+    <t>wfProcess</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>${btn-process}</t>
+  </si>
+  <si>
+    <t>NEW-IO-APPLY</t>
+  </si>
+  <si>
+    <t>NEW-IO-APPROVE-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Create [Internal Order]
  + By UID           : mhi0409
- + Flow description : ${test-part}-${test-time-long}</t>
+ + Flow description : ${workflow-description}</t>
+  </si>
+  <si>
+    <t>C. APPROVE [INTERNAL ORDER] BY [Preparer in Accounting Group]</t>
+  </si>
+  <si>
+    <t>mhi0369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Node [Preparer in Accounting Group]
+ + By UID           : mhi0369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Node [HOD of Same Department Applicant]
+ + By UID           : mhi0407</t>
+  </si>
+  <si>
+    <t>D. APPROVE [INTERNAL ORDER] BY [Intermediate Approver in Acct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Node [Intermediate Approver in Acct]
+ + By UID           : mhi0409</t>
+  </si>
+  <si>
+    <t>mhi0230</t>
+  </si>
+  <si>
+    <t>E. APPROVE [INTERNAL ORDER] BY [Final Approver]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Node [Final Approver]
+ + By UID           : mhi0230</t>
+  </si>
+  <si>
+    <t>F. Get Evident from DETAIL</t>
+  </si>
+  <si>
+    <t>wfOpenDetail</t>
+  </si>
+  <si>
+    <t>_2. Get Evident from DETAIL</t>
+  </si>
+  <si>
+    <t>NEW-IO-APPLY-1540797945255</t>
+  </si>
+  <si>
+    <t>TEST-O2C-DETAIL</t>
+  </si>
+  <si>
+    <t>wfCloseDetail</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>internal-order-no</t>
+  </si>
+  <si>
+    <t>//input[@type="hidden" and @name="internalOrder.internalOrderNumber"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Test get data from DETAIL-SCREEN
+ + Description       : ${workflow-description}
+ + Internal Order No : ${internal-order-no}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +541,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -599,9 +719,6 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -652,6 +769,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -667,6 +793,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -684,6 +819,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,31 +1120,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="3.625" style="7"/>
+    <col min="1" max="2" width="10.625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="3.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>102</v>
+      <c r="A1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="9" t="b">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="9" t="b">
+      <c r="A3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1018,169 +1162,169 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <f t="shared" ref="A6:A16" si="0">ROW()-ROW($A$5)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="24" t="s">
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <f t="shared" si="0"/>
+      <c r="C12" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="20">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="21">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>10</v>
       </c>
     </row>
@@ -1220,7 +1364,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1232,275 +1376,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f t="shared" ref="A6:A28" si="0">ROW()-ROW($A$5)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,62 +1659,62 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
+      <c r="A7" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1603,28 +1747,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1633,143 +1777,143 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f t="shared" ref="A10:A14" si="0">ROW()-ROW($A$5)</f>
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:B14"/>
@@ -1784,13 +1928,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1798,430 +1942,1523 @@
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="56.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" ref="A14:A32" si="0">ROW()-ROW($A$5)</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <f t="shared" ref="A21" si="1">ROW()-ROW($A$5)</f>
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="14">
+        <v>700</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="C36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" ref="A43" si="2">ROW()-ROW($A$5)</f>
+        <v>38</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <f t="shared" ref="A45:A46" si="3">ROW()-ROW($A$5)</f>
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <f t="shared" ref="A48:A49" si="4">ROW()-ROW($A$5)</f>
+        <v>43</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>46</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>48</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>51</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>52</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>54</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <f t="shared" ref="A60" si="5">ROW()-ROW($A$5)</f>
+        <v>55</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <f t="shared" ref="A62:A63" si="6">ROW()-ROW($A$5)</f>
+        <v>57</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <f t="shared" ref="A65:A66" si="7">ROW()-ROW($A$5)</f>
+        <v>60</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>63</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>65</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="23"/>
+      <c r="B71" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>68</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>69</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>71</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <f t="shared" ref="A77" si="8">ROW()-ROW($A$5)</f>
+        <v>72</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <f t="shared" ref="A79:A80" si="9">ROW()-ROW($A$5)</f>
+        <v>74</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <f t="shared" ref="A82:A83" si="10">ROW()-ROW($A$5)</f>
+        <v>77</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>80</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>82</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>85</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>86</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>88</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <f t="shared" ref="A94" si="11">ROW()-ROW($A$5)</f>
+        <v>89</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <f t="shared" ref="A96:A97" si="12">ROW()-ROW($A$5)</f>
+        <v>91</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <f t="shared" ref="A99:A100" si="13">ROW()-ROW($A$5)</f>
+        <v>94</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="30"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>97</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>99</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="23"/>
+      <c r="B105" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>101</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <f t="shared" ref="A107:A108" si="14">ROW()-ROW($A$5)</f>
+        <v>102</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:D5"/>
+  <mergeCells count="39">
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="56.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="D7" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="D8" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <f>ROW()-ROW($A$5)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <f t="shared" ref="A12:A30" si="0">ROW()-ROW($A$5)</f>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" ref="A12:A17" si="0">ROW()-ROW($A$5)</f>
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
+      <c r="B12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="B14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="B15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="B16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <f t="shared" ref="A19" si="1">ROW()-ROW($A$5)</f>
-        <v>14</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="15">
-        <v>700</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <f>ROW()-ROW($A$5)</f>
-        <v>29</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B30"/>
-  <mergeCells count="9">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B31:D31"/>
+  <autoFilter ref="A5:D5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="C1:D3"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input/test-0001.xlsx
+++ b/input/test-0001.xlsx
@@ -9,27 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="59400" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="818" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="71280" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="765" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="constant" sheetId="6" r:id="rId1"/>
+    <sheet name="constant" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="driver" sheetId="5" r:id="rId2"/>
-    <sheet name="common" sheetId="2" r:id="rId3"/>
+    <sheet name="common" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="test" sheetId="3" r:id="rId4"/>
     <sheet name="O2C-0003" sheetId="21" r:id="rId5"/>
-    <sheet name="io-select-customer" sheetId="23" r:id="rId6"/>
-    <sheet name="qt-select-io" sheetId="22" r:id="rId7"/>
-    <sheet name="so-select-qt" sheetId="25" r:id="rId8"/>
-    <sheet name="io-detail" sheetId="19" r:id="rId9"/>
-    <sheet name="qt-detail" sheetId="24" r:id="rId10"/>
+    <sheet name="SO-0001" sheetId="30" r:id="rId6"/>
+    <sheet name="IV-0001" sheetId="28" r:id="rId7"/>
+    <sheet name="so-approve-02" sheetId="26" r:id="rId8"/>
+    <sheet name="iv-input-item" sheetId="31" r:id="rId9"/>
+    <sheet name="iv-select-so" sheetId="29" r:id="rId10"/>
+    <sheet name="io-select-customer" sheetId="23" r:id="rId11"/>
+    <sheet name="qt-select-io" sheetId="22" r:id="rId12"/>
+    <sheet name="so-select-qt" sheetId="25" r:id="rId13"/>
+    <sheet name="io-detail" sheetId="19" r:id="rId14"/>
+    <sheet name="qt-detail" sheetId="24" r:id="rId15"/>
+    <sheet name="so-detail" sheetId="27" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'io-detail'!$A$5:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'io-select-customer'!$A$5:$B$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'O2C-0003'!$A$5:$D$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'qt-detail'!$A$5:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'qt-select-io'!$A$5:$B$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'so-select-qt'!$A$5:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'io-detail'!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'io-select-customer'!$A$5:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'IV-0001'!$A$5:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'iv-input-item'!$A$5:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'iv-select-so'!$A$5:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'O2C-0003'!$A$5:$D$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'qt-detail'!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'qt-select-io'!$A$5:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SO-0001'!$A$5:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'so-approve-02'!$A$5:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'so-detail'!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'so-select-qt'!$A$5:$B$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="268">
   <si>
     <t>#</t>
   </si>
@@ -620,9 +632,6 @@
     <t>//*[@id="searchQuotationGrid"]/div[5]/div/div[1]/div[1]</t>
   </si>
   <si>
-    <t>//input[@name="salesOrder.subCategoryCd"]</t>
-  </si>
-  <si>
     <t>0 : Sales/Technical Support for Group Company</t>
   </si>
   <si>
@@ -687,6 +696,173 @@
   </si>
   <si>
     <t>E. APPROVE [Sales Order] BY [Final Approver]</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>//select[@name="salesOrder.subCategoryCd"]</t>
+  </si>
+  <si>
+    <t>_2. Choose Workflow Item for processing</t>
+  </si>
+  <si>
+    <t>${uid}</t>
+  </si>
+  <si>
+    <t>${pwd}</t>
+  </si>
+  <si>
+    <t>wfGoApprove</t>
+  </si>
+  <si>
+    <t>_3. Input value</t>
+  </si>
+  <si>
+    <t>${btn-process}</t>
+  </si>
+  <si>
+    <t>clickable</t>
+  </si>
+  <si>
+    <t>_4. Submit</t>
+  </si>
+  <si>
+    <t>wfProcess</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>_6. Logging</t>
+  </si>
+  <si>
+    <t>cmd-end</t>
+  </si>
+  <si>
+    <t>so-approve-02</t>
+  </si>
+  <si>
+    <t>//select[@name="salesOrder.projectAttributeId"]</t>
+  </si>
+  <si>
+    <t>Main_Others (Completed Contract Method)</t>
+  </si>
+  <si>
+    <t>NEW-SO-DETAIL</t>
+  </si>
+  <si>
+    <t>sales-order-no</t>
+  </si>
+  <si>
+    <t>//input[@name="salesOrder.salesOrderNumber"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; Screen [Detail]
+ + Description       : ${id.desc}
+ + Sales Order No    : ${sales-order-no}</t>
+  </si>
+  <si>
+    <t>so-detail</t>
+  </si>
+  <si>
+    <t>[Invoice]</t>
+  </si>
+  <si>
+    <t>YX0F500003</t>
+  </si>
+  <si>
+    <t>A. APPLY [Invoice]</t>
+  </si>
+  <si>
+    <t>1.4 [O2C] : Invoice Issuance</t>
+  </si>
+  <si>
+    <t>//select[@name="applicationType"]</t>
+  </si>
+  <si>
+    <t>//a[@id='openInvoicePopup']</t>
+  </si>
+  <si>
+    <t>//input[@id="searchSalesOrderNo"]</t>
+  </si>
+  <si>
+    <t>//*[@id="searchSalesOrderGrid"]/div[5]/div/div[1]/div[1]</t>
+  </si>
+  <si>
+    <t>iv-select-so</t>
+  </si>
+  <si>
+    <t>${sales-order-no}</t>
+  </si>
+  <si>
+    <t>//input[@name="deliveryOrderNumber"]</t>
+  </si>
+  <si>
+    <t>//input[@name="deliveryDate"]</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>SO-0001</t>
+  </si>
+  <si>
+    <t>QTF18100005</t>
+  </si>
+  <si>
+    <t>O2C-SO</t>
+  </si>
+  <si>
+    <t>IV-0001</t>
+  </si>
+  <si>
+    <t>Process input arguments</t>
+  </si>
+  <si>
+    <t>Run action to each of item</t>
+  </si>
+  <si>
+    <t>iv-input-item</t>
+  </si>
+  <si>
+    <t>Item 01, 10, Feet, 1000</t>
+  </si>
+  <si>
+    <t>//label[@for="btnAddDetail"]</t>
+  </si>
+  <si>
+    <t>Item 02, 2, Feet, 500</t>
+  </si>
+  <si>
+    <t>Item 03, 7, Feet, 490</t>
+  </si>
+  <si>
+    <t>parseArr</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>element-iv-tr</t>
+  </si>
+  <si>
+    <t>//*[@id="invoiceForm"]/table[3]/tbody/tr</t>
+  </si>
+  <si>
+    <t>item-idx</t>
+  </si>
+  <si>
+    <t>item-data</t>
+  </si>
+  <si>
+    <t>//*[@id="invoiceForm"]/table[3]/tbody/tr[${item-idx}]</t>
+  </si>
+  <si>
+    <t>${parent}</t>
+  </si>
+  <si>
+    <t>${parent}//input[@name="invoiceDetailIns[${item-idx}].description"]</t>
   </si>
 </sst>
 </file>
@@ -805,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -865,11 +1041,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -988,6 +1186,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1015,17 +1234,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1036,11 +1252,14 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -1049,6 +1268,12 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -1381,6 +1606,807 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:B11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:B11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6:A11" si="0">ROW()-ROW($A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:B11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6:A11" si="0">ROW()-ROW($A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:B11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28">
+        <v>6</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:A15" si="0">ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+    </row>
+    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:D7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1550,11 +2576,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
@@ -1566,6 +2592,209 @@
       </c>
       <c r="C15" s="14" t="s">
         <v>176</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:D7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28">
+        <v>6</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:A15" si="0">ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+    </row>
+    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="D15" s="14"/>
     </row>
@@ -1587,7 +2816,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1650,10 +2879,10 @@
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -1669,10 +2898,10 @@
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
@@ -1688,10 +2917,10 @@
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
@@ -1750,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +3017,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +3315,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2130,21 +3359,25 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>1</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -2180,13 +3413,13 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2205,10 +3438,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -2217,10 +3450,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -2229,8 +3462,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -2251,11 +3484,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -2360,11 +3593,11 @@
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
@@ -2379,11 +3612,11 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
@@ -2432,19 +3665,19 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -2478,11 +3711,11 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -2499,11 +3732,11 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -2575,11 +3808,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
@@ -2656,11 +3889,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -2675,19 +3908,19 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
@@ -2721,11 +3954,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
@@ -2740,19 +3973,19 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
@@ -2786,11 +4019,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
@@ -2805,19 +4038,19 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -2851,11 +4084,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -2870,19 +4103,19 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
@@ -2916,11 +4149,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="57"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
@@ -2935,11 +4168,11 @@
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -2947,63 +4180,61 @@
         <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="42">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>61</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="24" t="str">
+      <c r="C66" s="24" t="str">
         <f>$D$23</f>
         <v>${Applicant}</v>
       </c>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="54" t="s">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="32"/>
+      <c r="B67" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="32">
-        <f>ROW()-ROW($A$5)</f>
-        <v>62</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>63</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="44" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="23"/>
+      <c r="B69" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" s="45" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="23"/>
+      <c r="B70" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="47"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>65</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
@@ -3014,65 +4245,67 @@
         <v>71</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>67</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="35" t="str">
+      <c r="D72" s="35" t="str">
         <f>$D$23</f>
         <v>${Applicant}</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="48" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="50"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>68</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>69</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="14"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="48" t="s">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="50"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <f t="shared" ref="A75:A81" si="2">ROW()-ROW($A$5)</f>
-        <v>70</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="14"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A76:A82" si="2">ROW()-ROW($A$5)</f>
         <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D76" s="14"/>
     </row>
@@ -3082,15 +4315,12 @@
         <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="14" t="str">
-        <f ca="1">TEXT(TODAY()+2,"yyyy/mm/dd")</f>
-        <v>2018/11/01</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
@@ -3098,13 +4328,14 @@
         <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f ca="1">TEXT(TODAY()+2,"yyyy/mm/dd")</f>
+        <v>2018/11/02</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3113,13 +4344,13 @@
         <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="14">
-        <v>20000</v>
+        <v>141</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,10 +4362,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>180</v>
+        <v>144</v>
+      </c>
+      <c r="D80" s="14">
+        <v>20000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,64 +4374,64 @@
         <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D82" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="48" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <f t="shared" ref="A83" si="3">ROW()-ROW($A$5)</f>
-        <v>78</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <f t="shared" ref="A84" si="3">ROW()-ROW($A$5)</f>
+        <v>79</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="44" t="s">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="45" t="s">
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="47"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>81</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>170</v>
-      </c>
+      <c r="C86" s="53"/>
+      <c r="D86" s="54"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
@@ -3211,652 +4442,709 @@
         <v>71</v>
       </c>
       <c r="C87" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>83</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D88" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="48" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="50"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>84</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="56"/>
+      <c r="D89" s="57"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>85</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="44" t="s">
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>86</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>87</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="42">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>88</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="35" t="str">
+      <c r="C93" s="35" t="str">
         <f>$D$23</f>
         <v>${Applicant}</v>
       </c>
-      <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
-      <c r="B92" s="54" t="s">
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="32"/>
+      <c r="B94" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="32">
-        <f>ROW()-ROW($A$5)</f>
-        <v>88</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>90</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="23"/>
-      <c r="B94" s="44" t="s">
+      <c r="C95" s="35"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="23"/>
-      <c r="B95" s="45" t="s">
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="B97" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="46"/>
-      <c r="D95" s="47"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>91</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="14" t="s">
+      <c r="C97" s="53"/>
+      <c r="D97" s="54"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>93</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D98" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>92</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="14" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>94</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D97" s="38" t="str">
+      <c r="D99" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>96</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="56"/>
+      <c r="D102" s="57"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <f t="shared" ref="A103:A115" si="4">ROW()-ROW($A$5)</f>
+        <v>98</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="14" t="str">
+        <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
+        <v>CPO20181031</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="14" t="str">
+        <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
+        <v>2018/10/21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="14" t="str">
+        <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
+        <v>2018/11/30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="56"/>
+      <c r="D116" s="57"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <f t="shared" ref="A117" si="5">ROW()-ROW($A$5)</f>
+        <v>112</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
+      <c r="B118" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="51"/>
+      <c r="D118" s="51"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="23"/>
+      <c r="B119" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="53"/>
+      <c r="D119" s="54"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>115</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>116</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="56"/>
+      <c r="D122" s="57"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>118</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="23"/>
+      <c r="B124" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="23"/>
+      <c r="B125" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="53"/>
+      <c r="D125" s="54"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>121</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>122</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="17"/>
+      <c r="B128" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="56"/>
+      <c r="D128" s="57"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>124</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
+      <c r="B130" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="23"/>
+      <c r="B131" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="53"/>
+      <c r="D131" s="54"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>127</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>128</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="17"/>
+      <c r="B134" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>130</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="23"/>
+      <c r="B136" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="23"/>
+      <c r="B137" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>133</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>134</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="17"/>
+      <c r="B140" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="56"/>
+      <c r="D140" s="57"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>136</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="23"/>
+      <c r="B142" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>138</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="43">
+        <v>2000</v>
+      </c>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>139</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" s="43" t="str">
         <f>$D$23</f>
         <v>${Applicant}</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="50"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>94</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="14"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="50"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <f t="shared" ref="A101" si="4">ROW()-ROW($A$5)</f>
-        <v>96</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="50"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <f t="shared" ref="A103:A114" si="5">ROW()-ROW($A$5)</f>
-        <v>98</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D106" s="14" t="str">
-        <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>CPO20181030</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="14" t="str">
-        <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
-        <v>2018/10/20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="14" t="str">
-        <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
-        <v>2018/11/29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <f t="shared" si="5"/>
-        <v>104</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
-        <f t="shared" si="5"/>
-        <v>107</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
-        <f t="shared" si="5"/>
-        <v>109</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="49"/>
-      <c r="D115" s="50"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
-        <f t="shared" ref="A116" si="6">ROW()-ROW($A$5)</f>
-        <v>111</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="23"/>
-      <c r="B117" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="23"/>
-      <c r="B118" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="47"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>114</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>115</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C121" s="49"/>
-      <c r="D121" s="50"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>117</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="23"/>
-      <c r="B124" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="47"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>120</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>121</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="17"/>
-      <c r="B127" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="49"/>
-      <c r="D127" s="50"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>123</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="23"/>
-      <c r="B129" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="23"/>
-      <c r="B130" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="47"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>126</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>127</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="17"/>
-      <c r="B133" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="49"/>
-      <c r="D133" s="50"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>129</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-    </row>
-    <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="23"/>
-      <c r="B135" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="23"/>
-      <c r="B136" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C136" s="46"/>
-      <c r="D136" s="47"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>132</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>133</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="17"/>
-      <c r="B139" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="49"/>
-      <c r="D139" s="50"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>135</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
+      <c r="D144" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:D65"/>
+  <autoFilter ref="A5:D66"/>
   <mergeCells count="53">
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B128:D128"/>
     <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3866,28 +5154,25 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B92:D92"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B142:D142"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B140:D140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3897,54 +5182,59 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
+    <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C29" sqref="C29"/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -3959,140 +5249,861 @@
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A13" si="0">ROW()-ROW($A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>15</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" ref="A28:A39" si="1">ROW()-ROW($A$5)</f>
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
+        <v>CPO20181031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
+        <v>2018/10/21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="14" t="str">
+        <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
+        <v>2018/11/30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <f t="shared" ref="A41" si="2">ROW()-ROW($A$5)</f>
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>39</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>42</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>45</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>46</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>48</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="B55" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>51</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>52</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>54</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>57</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>58</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <f>ROW()-ROW($A$5)</f>
         <v>60</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <f>ROW()-ROW($A$5)</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="B65" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>62</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="47">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>63</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B11"/>
+  <autoFilter ref="A5:D17"/>
+  <mergeCells count="23">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
+    <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C29" sqref="C29"/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -4107,89 +6118,451 @@
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f t="shared" ref="A6:A11" si="0">ROW()-ROW($A$5)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A13" si="0">ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <f>ROW()-ROW($A$5)</f>
+        <v>15</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <f>ROW()-ROW($A$5)</f>
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" ref="A29:A38" si="1">ROW()-ROW($A$5)</f>
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f ca="1">"DO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
+        <v>DO20181031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="14" t="str">
+        <f ca="1">TEXT(TODAY()+7,"yyyy/mm/dd")</f>
+        <v>2018/11/07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="C35" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B11"/>
+  <autoFilter ref="A5:D33"/>
+  <mergeCells count="10">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4198,24 +6571,21 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C29" sqref="C29"/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="56.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,7 +6595,8 @@
       <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -4234,7 +6605,8 @@
       <c r="B2" s="10">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -4243,7 +6615,8 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -4258,89 +6631,158 @@
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f t="shared" ref="A6:A11" si="0">ROW()-ROW($A$5)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8" si="0">ROW()-ROW($A$5)</f>
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A12" si="1">ROW()-ROW($A$5)</f>
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" ref="A14:A15" si="2">ROW()-ROW($A$5)</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f>ROW()-ROW($A$5)</f>
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B11"/>
+  <autoFilter ref="A5:D17"/>
+  <mergeCells count="4">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4349,53 +6791,52 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="10">
         <v>6</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -4410,24 +6851,15 @@
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <f>ROW()-ROW($A$5)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>172</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -4435,114 +6867,109 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A15" si="0">ROW()-ROW($A$5)</f>
+        <f>ROW()-ROW($A$5)</f>
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
+      <c r="A9" s="25">
+        <f>ROW()-ROW($A$5)</f>
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($A$5)</f>
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($A$5)</f>
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-ROW($A$5)</f>
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="14"/>
+      <c r="A14" s="7">
+        <f>ROW()-ROW($A$5)</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:D7"/>
-  <mergeCells count="1">
-    <mergeCell ref="B14:D14"/>
+  <autoFilter ref="A5:B14"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/test-0001.xlsx
+++ b/input/test-0001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="94050" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="1"/>
+    <workbookView xWindow="95040" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="6" r:id="rId1"/>
@@ -1451,29 +1451,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1490,6 +1469,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1497,6 +1479,24 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,11 +1907,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -1943,11 +1943,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -2038,11 +2038,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -3204,11 +3204,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -3240,11 +3240,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -3289,11 +3289,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
@@ -3970,7 +3970,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4612,10 +4612,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -4624,10 +4624,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -4636,8 +4636,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -4658,11 +4658,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -4812,11 +4812,11 @@
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
@@ -4831,11 +4831,11 @@
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
@@ -4884,19 +4884,19 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
@@ -4930,11 +4930,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -4951,11 +4951,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -5027,11 +5027,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
@@ -5108,11 +5108,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -5127,19 +5127,19 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
@@ -5173,11 +5173,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
@@ -5192,19 +5192,19 @@
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="25">
@@ -5238,11 +5238,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
@@ -5257,19 +5257,19 @@
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
@@ -5303,11 +5303,11 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
@@ -5322,19 +5322,19 @@
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
@@ -5368,11 +5368,11 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
@@ -5387,11 +5387,11 @@
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
@@ -5422,11 +5422,11 @@
     </row>
     <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="32">
@@ -5441,19 +5441,19 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
@@ -5488,11 +5488,11 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
@@ -5509,11 +5509,11 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
@@ -5619,11 +5619,11 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="71"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
@@ -5638,19 +5638,19 @@
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="62"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
@@ -5684,11 +5684,11 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
@@ -5703,11 +5703,11 @@
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A94" s="23"/>
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -5738,11 +5738,11 @@
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="32"/>
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="32">
@@ -5757,19 +5757,19 @@
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A99" s="23"/>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="23"/>
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="62"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
@@ -5803,11 +5803,11 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="71"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
@@ -5824,11 +5824,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="71"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
@@ -6024,11 +6024,11 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
-      <c r="B119" s="56" t="s">
+      <c r="B119" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="57"/>
-      <c r="D119" s="58"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="71"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
@@ -6043,19 +6043,19 @@
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
-      <c r="B121" s="59" t="s">
+      <c r="B121" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="56"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
-      <c r="B122" s="60" t="s">
+      <c r="B122" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="61"/>
-      <c r="D122" s="62"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="25">
@@ -6089,11 +6089,11 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
-      <c r="B125" s="56" t="s">
+      <c r="B125" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="57"/>
-      <c r="D125" s="58"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="71"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
@@ -6108,19 +6108,19 @@
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C127" s="59"/>
-      <c r="D127" s="59"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="56"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
-      <c r="B128" s="60" t="s">
+      <c r="B128" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="61"/>
-      <c r="D128" s="62"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
@@ -6154,11 +6154,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C131" s="57"/>
-      <c r="D131" s="58"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="71"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
@@ -6173,19 +6173,19 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="23"/>
-      <c r="B134" s="60" t="s">
+      <c r="B134" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="61"/>
-      <c r="D134" s="62"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
@@ -6219,11 +6219,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
-      <c r="B137" s="56" t="s">
+      <c r="B137" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="58"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="71"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
@@ -6238,19 +6238,19 @@
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A139" s="23"/>
-      <c r="B139" s="59" t="s">
+      <c r="B139" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C139" s="59"/>
-      <c r="D139" s="59"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="23"/>
-      <c r="B140" s="60" t="s">
+      <c r="B140" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C140" s="61"/>
-      <c r="D140" s="62"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
@@ -6284,11 +6284,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
-      <c r="B143" s="56" t="s">
+      <c r="B143" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C143" s="57"/>
-      <c r="D143" s="58"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="71"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
@@ -6303,11 +6303,11 @@
     </row>
     <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A145" s="23"/>
-      <c r="B145" s="59" t="s">
+      <c r="B145" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
@@ -6338,11 +6338,11 @@
     </row>
     <row r="148" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
-      <c r="B148" s="63" t="s">
+      <c r="B148" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="63"/>
-      <c r="D148" s="63"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="32">
@@ -6357,19 +6357,19 @@
     </row>
     <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A150" s="23"/>
-      <c r="B150" s="59" t="s">
+      <c r="B150" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="C150" s="59"/>
-      <c r="D150" s="59"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="23"/>
-      <c r="B151" s="60" t="s">
+      <c r="B151" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C151" s="61"/>
-      <c r="D151" s="62"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="68"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="25">
@@ -6403,11 +6403,11 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
-      <c r="B154" s="56" t="s">
+      <c r="B154" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="57"/>
-      <c r="D154" s="58"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="71"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
@@ -6424,11 +6424,11 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="C156" s="57"/>
-      <c r="D156" s="58"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="71"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
@@ -6499,11 +6499,11 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
-      <c r="B162" s="56" t="s">
+      <c r="B162" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="C162" s="57"/>
-      <c r="D162" s="58"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="71"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
@@ -6626,11 +6626,11 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
-      <c r="B171" s="56" t="s">
+      <c r="B171" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="C171" s="57"/>
-      <c r="D171" s="58"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="71"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
@@ -6660,11 +6660,11 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
-      <c r="B174" s="56" t="s">
+      <c r="B174" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="C174" s="57"/>
-      <c r="D174" s="58"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="71"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
@@ -6696,19 +6696,19 @@
     </row>
     <row r="178" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A178" s="23"/>
-      <c r="B178" s="59" t="s">
+      <c r="B178" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C178" s="59"/>
-      <c r="D178" s="59"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="56"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="23"/>
-      <c r="B179" s="60" t="s">
+      <c r="B179" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C179" s="61"/>
-      <c r="D179" s="62"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="68"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="25">
@@ -6742,11 +6742,11 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="17"/>
-      <c r="B182" s="56" t="s">
+      <c r="B182" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C182" s="57"/>
-      <c r="D182" s="58"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="71"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
@@ -6763,11 +6763,11 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
-      <c r="B184" s="56" t="s">
+      <c r="B184" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="57"/>
-      <c r="D184" s="58"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="71"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
@@ -6799,11 +6799,11 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="17"/>
-      <c r="B187" s="56" t="s">
+      <c r="B187" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="57"/>
-      <c r="D187" s="58"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
@@ -6926,11 +6926,11 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="17"/>
-      <c r="B196" s="56" t="s">
+      <c r="B196" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C196" s="57"/>
-      <c r="D196" s="58"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="71"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
@@ -6945,19 +6945,19 @@
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A198" s="23"/>
-      <c r="B198" s="59" t="s">
+      <c r="B198" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C198" s="59"/>
-      <c r="D198" s="59"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="56"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="23"/>
-      <c r="B199" s="60" t="s">
+      <c r="B199" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C199" s="61"/>
-      <c r="D199" s="62"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="68"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="25">
@@ -6991,11 +6991,11 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
-      <c r="B202" s="56" t="s">
+      <c r="B202" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C202" s="57"/>
-      <c r="D202" s="58"/>
+      <c r="C202" s="70"/>
+      <c r="D202" s="71"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
@@ -7010,19 +7010,19 @@
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A204" s="23"/>
-      <c r="B204" s="59" t="s">
+      <c r="B204" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C204" s="59"/>
-      <c r="D204" s="59"/>
+      <c r="C204" s="56"/>
+      <c r="D204" s="56"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="23"/>
-      <c r="B205" s="60" t="s">
+      <c r="B205" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C205" s="61"/>
-      <c r="D205" s="62"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="68"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="25">
@@ -7056,11 +7056,11 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="17"/>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C208" s="57"/>
-      <c r="D208" s="58"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="71"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
@@ -7075,19 +7075,19 @@
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A210" s="23"/>
-      <c r="B210" s="59" t="s">
+      <c r="B210" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
+      <c r="C210" s="56"/>
+      <c r="D210" s="56"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="23"/>
-      <c r="B211" s="60" t="s">
+      <c r="B211" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C211" s="61"/>
-      <c r="D211" s="62"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="68"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="25">
@@ -7121,11 +7121,11 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
-      <c r="B214" s="56" t="s">
+      <c r="B214" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C214" s="57"/>
-      <c r="D214" s="58"/>
+      <c r="C214" s="70"/>
+      <c r="D214" s="71"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
@@ -7140,19 +7140,19 @@
     </row>
     <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A216" s="23"/>
-      <c r="B216" s="59" t="s">
+      <c r="B216" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C216" s="59"/>
-      <c r="D216" s="59"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="56"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="23"/>
-      <c r="B217" s="60" t="s">
+      <c r="B217" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C217" s="61"/>
-      <c r="D217" s="62"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="68"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="25">
@@ -7186,11 +7186,11 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="17"/>
-      <c r="B220" s="56" t="s">
+      <c r="B220" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C220" s="57"/>
-      <c r="D220" s="58"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="71"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
@@ -7205,11 +7205,11 @@
     </row>
     <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A222" s="23"/>
-      <c r="B222" s="59" t="s">
+      <c r="B222" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C222" s="59"/>
-      <c r="D222" s="59"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="56"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
@@ -7240,6 +7240,74 @@
   </sheetData>
   <autoFilter ref="A5:D69"/>
   <mergeCells count="80">
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D3"/>
@@ -7252,74 +7320,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7356,10 +7356,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -7368,10 +7368,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -7380,8 +7380,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -7402,11 +7402,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -7511,11 +7511,11 @@
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
@@ -7530,11 +7530,11 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
@@ -7583,19 +7583,19 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -7629,11 +7629,11 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -7650,11 +7650,11 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -7726,11 +7726,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
@@ -7807,11 +7807,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -7826,19 +7826,19 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
@@ -7872,11 +7872,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
@@ -7891,19 +7891,19 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
@@ -7937,11 +7937,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
@@ -7956,19 +7956,19 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -8002,11 +8002,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -8021,19 +8021,19 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
@@ -8067,11 +8067,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="58"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
@@ -8086,11 +8086,11 @@
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -8121,11 +8121,11 @@
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="32">
@@ -8140,19 +8140,19 @@
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="23"/>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
@@ -8187,11 +8187,11 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="71"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
@@ -8208,11 +8208,11 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
@@ -8318,11 +8318,11 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="71"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
@@ -8337,19 +8337,19 @@
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="23"/>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="61"/>
-      <c r="D86" s="62"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
@@ -8383,11 +8383,11 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="71"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
@@ -8402,11 +8402,11 @@
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
@@ -8437,11 +8437,11 @@
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="63"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32">
@@ -8456,19 +8456,19 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="23"/>
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="62"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="25">
@@ -8502,11 +8502,11 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
@@ -8523,11 +8523,11 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
@@ -8723,11 +8723,11 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
-      <c r="B116" s="56" t="s">
+      <c r="B116" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="57"/>
-      <c r="D116" s="58"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="71"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
@@ -8742,19 +8742,19 @@
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
-      <c r="B118" s="59" t="s">
+      <c r="B118" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
-      <c r="B119" s="60" t="s">
+      <c r="B119" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="61"/>
-      <c r="D119" s="62"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="25">
@@ -8788,11 +8788,11 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
-      <c r="B122" s="56" t="s">
+      <c r="B122" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="57"/>
-      <c r="D122" s="58"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="71"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
@@ -8807,19 +8807,19 @@
     </row>
     <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
-      <c r="B124" s="59" t="s">
+      <c r="B124" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
-      <c r="B125" s="60" t="s">
+      <c r="B125" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="61"/>
-      <c r="D125" s="62"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="25">
@@ -8853,11 +8853,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="58"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="71"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
@@ -8872,19 +8872,19 @@
     </row>
     <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
-      <c r="B130" s="59" t="s">
+      <c r="B130" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="59"/>
-      <c r="D130" s="59"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="56"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
-      <c r="B131" s="60" t="s">
+      <c r="B131" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C131" s="61"/>
-      <c r="D131" s="62"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="25">
@@ -8918,11 +8918,11 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="57"/>
-      <c r="D134" s="58"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="71"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
@@ -8937,19 +8937,19 @@
     </row>
     <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
-      <c r="B136" s="59" t="s">
+      <c r="B136" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C136" s="59"/>
-      <c r="D136" s="59"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="23"/>
-      <c r="B137" s="60" t="s">
+      <c r="B137" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="61"/>
-      <c r="D137" s="62"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="25">
@@ -8983,11 +8983,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
-      <c r="B140" s="56" t="s">
+      <c r="B140" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C140" s="57"/>
-      <c r="D140" s="58"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="71"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
@@ -9002,11 +9002,11 @@
     </row>
     <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A142" s="23"/>
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C142" s="59"/>
-      <c r="D142" s="59"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
@@ -9038,6 +9038,43 @@
   </sheetData>
   <autoFilter ref="A5:D66"/>
   <mergeCells count="53">
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B142:D142"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B85:D85"/>
@@ -9054,43 +9091,6 @@
     <mergeCell ref="B136:D136"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B134:D134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9127,10 +9127,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -9139,10 +9139,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -9151,8 +9151,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -9173,11 +9173,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -9282,11 +9282,11 @@
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
@@ -9335,11 +9335,11 @@
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
@@ -9369,19 +9369,19 @@
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -9415,11 +9415,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -9436,11 +9436,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -9623,11 +9623,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
@@ -9642,19 +9642,19 @@
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
@@ -9688,11 +9688,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
@@ -9707,19 +9707,19 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
@@ -9753,11 +9753,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
@@ -9772,19 +9772,19 @@
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -9818,11 +9818,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -9837,19 +9837,19 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
@@ -9883,11 +9883,11 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="58"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -9902,11 +9902,11 @@
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
@@ -9937,11 +9937,12 @@
   </sheetData>
   <autoFilter ref="A5:D17"/>
   <mergeCells count="23">
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B25:D25"/>
@@ -9954,12 +9955,11 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9996,10 +9996,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -10008,10 +10008,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -10020,8 +10020,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -10042,11 +10042,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -10196,11 +10196,11 @@
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
@@ -10249,11 +10249,11 @@
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
@@ -10283,19 +10283,19 @@
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -10329,11 +10329,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -10350,11 +10350,11 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
@@ -10425,11 +10425,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
@@ -10552,11 +10552,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -10586,11 +10586,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
@@ -10622,19 +10622,19 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -10668,11 +10668,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -10689,11 +10689,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -10725,11 +10725,11 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
@@ -10852,11 +10852,11 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
@@ -10871,19 +10871,19 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
@@ -10917,11 +10917,11 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
@@ -10936,19 +10936,19 @@
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="23"/>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="62"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
@@ -10982,11 +10982,11 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
@@ -11001,19 +11001,19 @@
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A84" s="23"/>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="62"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
@@ -11047,11 +11047,11 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
@@ -11066,19 +11066,19 @@
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="25">
@@ -11112,11 +11112,11 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -11131,11 +11131,11 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
@@ -11166,21 +11166,6 @@
   </sheetData>
   <autoFilter ref="A5:D63"/>
   <mergeCells count="31">
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B88:D88"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B58:D58"/>
@@ -11197,6 +11182,21 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input/test-0001.xlsx
+++ b/input/test-0001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="95040" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="1"/>
+    <workbookView xWindow="96030" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="6" r:id="rId1"/>
@@ -1451,8 +1451,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1469,9 +1490,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1479,24 +1497,6 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,11 +1907,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -1943,11 +1943,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D11" s="14" t="str">
         <f ca="1">"Remark " &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>Remark 20181102</v>
+        <v>Remark 20181105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,11 +2038,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D12" s="14" t="str">
         <f ca="1">TEXT(TODAY()-1,"yyyy/mm/dd")</f>
-        <v>2018/11/01</v>
+        <v>2018/11/04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3204,11 +3204,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -3240,11 +3240,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -3289,11 +3289,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
@@ -3969,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4612,10 +4612,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -4624,10 +4624,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -4636,8 +4636,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -4658,11 +4658,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -4812,11 +4812,11 @@
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
@@ -4831,11 +4831,11 @@
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
@@ -4884,19 +4884,19 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
@@ -4930,11 +4930,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -4951,11 +4951,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -5027,11 +5027,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
@@ -5108,11 +5108,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -5127,19 +5127,19 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
@@ -5173,11 +5173,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
@@ -5192,19 +5192,19 @@
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="25">
@@ -5238,11 +5238,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
@@ -5257,19 +5257,19 @@
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
@@ -5303,11 +5303,11 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
@@ -5322,19 +5322,19 @@
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="62"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
@@ -5368,11 +5368,11 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="71"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
@@ -5387,11 +5387,11 @@
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
@@ -5422,11 +5422,11 @@
     </row>
     <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="32">
@@ -5441,19 +5441,19 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
@@ -5488,11 +5488,11 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
@@ -5509,11 +5509,11 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="71"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="D82" s="14" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy/mm/dd")</f>
-        <v>2018/11/04</v>
+        <v>2018/11/07</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5619,11 +5619,11 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
-      <c r="B86" s="69" t="s">
+      <c r="B86" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="70"/>
-      <c r="D86" s="71"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
@@ -5638,19 +5638,19 @@
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="62"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
@@ -5684,11 +5684,11 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
-      <c r="B92" s="69" t="s">
+      <c r="B92" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
@@ -5703,11 +5703,11 @@
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A94" s="23"/>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -5738,11 +5738,11 @@
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="32"/>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="32">
@@ -5757,19 +5757,19 @@
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A99" s="23"/>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="23"/>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="62"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
@@ -5803,11 +5803,11 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="71"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
@@ -5824,11 +5824,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="D105" s="71"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="D108" s="14" t="str">
         <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>CPO20181102</v>
+        <v>CPO20181105</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D110" s="14" t="str">
         <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
-        <v>2018/10/23</v>
+        <v>2018/10/26</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D111" s="14" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
-        <v>2018/12/02</v>
+        <v>2018/12/05</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6024,11 +6024,11 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
-      <c r="B119" s="69" t="s">
+      <c r="B119" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="70"/>
-      <c r="D119" s="71"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="58"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
@@ -6043,19 +6043,19 @@
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
-      <c r="B121" s="56" t="s">
+      <c r="B121" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="56"/>
-      <c r="D121" s="56"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
-      <c r="B122" s="66" t="s">
+      <c r="B122" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="62"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="25">
@@ -6089,11 +6089,11 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="70"/>
-      <c r="D125" s="71"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="58"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
@@ -6108,19 +6108,19 @@
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C127" s="56"/>
-      <c r="D127" s="56"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
-      <c r="B128" s="66" t="s">
+      <c r="B128" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="62"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
@@ -6154,11 +6154,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
-      <c r="B131" s="69" t="s">
+      <c r="B131" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C131" s="70"/>
-      <c r="D131" s="71"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="58"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
@@ -6173,19 +6173,19 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
-      <c r="B133" s="56" t="s">
+      <c r="B133" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="23"/>
-      <c r="B134" s="66" t="s">
+      <c r="B134" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="62"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
@@ -6219,11 +6219,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
-      <c r="B137" s="69" t="s">
+      <c r="B137" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C137" s="70"/>
-      <c r="D137" s="71"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="58"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
@@ -6238,19 +6238,19 @@
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A139" s="23"/>
-      <c r="B139" s="56" t="s">
+      <c r="B139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C139" s="56"/>
-      <c r="D139" s="56"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="23"/>
-      <c r="B140" s="66" t="s">
+      <c r="B140" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="68"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="62"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
@@ -6284,11 +6284,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
-      <c r="B143" s="69" t="s">
+      <c r="B143" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C143" s="70"/>
-      <c r="D143" s="71"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="58"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
@@ -6303,11 +6303,11 @@
     </row>
     <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A145" s="23"/>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
@@ -6338,11 +6338,11 @@
     </row>
     <row r="148" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
+      <c r="C148" s="63"/>
+      <c r="D148" s="63"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="32">
@@ -6357,19 +6357,19 @@
     </row>
     <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A150" s="23"/>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="23"/>
-      <c r="B151" s="66" t="s">
+      <c r="B151" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C151" s="67"/>
-      <c r="D151" s="68"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="62"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="25">
@@ -6403,11 +6403,11 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
-      <c r="B154" s="69" t="s">
+      <c r="B154" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="70"/>
-      <c r="D154" s="71"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="58"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
@@ -6424,11 +6424,11 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
-      <c r="B156" s="69" t="s">
+      <c r="B156" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="C156" s="70"/>
-      <c r="D156" s="71"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="58"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
@@ -6499,11 +6499,11 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
-      <c r="B162" s="69" t="s">
+      <c r="B162" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="C162" s="70"/>
-      <c r="D162" s="71"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="58"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D165" s="14" t="str">
         <f ca="1">TEXT(TODAY()-1,"yyyy/mm/dd")</f>
-        <v>2018/11/01</v>
+        <v>2018/11/04</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D168" s="14" t="str">
         <f ca="1">"Reveived "&amp;TEXT(TODAY(),"yyyy/mm/dd")</f>
-        <v>Reveived 2018/11/02</v>
+        <v>Reveived 2018/11/05</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6626,11 +6626,11 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
-      <c r="B171" s="69" t="s">
+      <c r="B171" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="C171" s="70"/>
-      <c r="D171" s="71"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="58"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
@@ -6660,11 +6660,11 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
-      <c r="B174" s="69" t="s">
+      <c r="B174" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="C174" s="70"/>
-      <c r="D174" s="71"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="58"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
@@ -6696,19 +6696,19 @@
     </row>
     <row r="178" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A178" s="23"/>
-      <c r="B178" s="56" t="s">
+      <c r="B178" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="C178" s="56"/>
-      <c r="D178" s="56"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="59"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="23"/>
-      <c r="B179" s="66" t="s">
+      <c r="B179" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C179" s="67"/>
-      <c r="D179" s="68"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="62"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="25">
@@ -6742,11 +6742,11 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="17"/>
-      <c r="B182" s="69" t="s">
+      <c r="B182" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C182" s="70"/>
-      <c r="D182" s="71"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="58"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
@@ -6763,11 +6763,11 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
-      <c r="B184" s="69" t="s">
+      <c r="B184" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="70"/>
-      <c r="D184" s="71"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="58"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
@@ -6799,11 +6799,11 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="17"/>
-      <c r="B187" s="69" t="s">
+      <c r="B187" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="70"/>
-      <c r="D187" s="71"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="58"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D188" s="14" t="str">
         <f ca="1">"DO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>DO20181102</v>
+        <v>DO20181105</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="D189" s="14" t="str">
         <f ca="1">TEXT(TODAY()+7,"yyyy/mm/dd")</f>
-        <v>2018/11/09</v>
+        <v>2018/11/12</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6921,16 +6921,16 @@
       </c>
       <c r="D195" s="14" t="str">
         <f ca="1">"Automation " &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>Automation 20181102</v>
+        <v>Automation 20181105</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="17"/>
-      <c r="B196" s="69" t="s">
+      <c r="B196" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C196" s="70"/>
-      <c r="D196" s="71"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="58"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
@@ -6945,19 +6945,19 @@
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A198" s="23"/>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="59"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="23"/>
-      <c r="B199" s="66" t="s">
+      <c r="B199" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C199" s="67"/>
-      <c r="D199" s="68"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="62"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="25">
@@ -6991,11 +6991,11 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
-      <c r="B202" s="69" t="s">
+      <c r="B202" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C202" s="70"/>
-      <c r="D202" s="71"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="58"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
@@ -7010,19 +7010,19 @@
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A204" s="23"/>
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="C204" s="56"/>
-      <c r="D204" s="56"/>
+      <c r="C204" s="59"/>
+      <c r="D204" s="59"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="23"/>
-      <c r="B205" s="66" t="s">
+      <c r="B205" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C205" s="67"/>
-      <c r="D205" s="68"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="62"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="25">
@@ -7056,11 +7056,11 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="17"/>
-      <c r="B208" s="69" t="s">
+      <c r="B208" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C208" s="70"/>
-      <c r="D208" s="71"/>
+      <c r="C208" s="57"/>
+      <c r="D208" s="58"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
@@ -7075,19 +7075,19 @@
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A210" s="23"/>
-      <c r="B210" s="56" t="s">
+      <c r="B210" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C210" s="56"/>
-      <c r="D210" s="56"/>
+      <c r="C210" s="59"/>
+      <c r="D210" s="59"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="23"/>
-      <c r="B211" s="66" t="s">
+      <c r="B211" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C211" s="67"/>
-      <c r="D211" s="68"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="62"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="25">
@@ -7121,11 +7121,11 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
-      <c r="B214" s="69" t="s">
+      <c r="B214" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C214" s="70"/>
-      <c r="D214" s="71"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="58"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
@@ -7140,19 +7140,19 @@
     </row>
     <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A216" s="23"/>
-      <c r="B216" s="56" t="s">
+      <c r="B216" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C216" s="56"/>
-      <c r="D216" s="56"/>
+      <c r="C216" s="59"/>
+      <c r="D216" s="59"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="23"/>
-      <c r="B217" s="66" t="s">
+      <c r="B217" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C217" s="67"/>
-      <c r="D217" s="68"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="62"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="25">
@@ -7186,11 +7186,11 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="17"/>
-      <c r="B220" s="69" t="s">
+      <c r="B220" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C220" s="70"/>
-      <c r="D220" s="71"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="58"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
@@ -7205,11 +7205,11 @@
     </row>
     <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A222" s="23"/>
-      <c r="B222" s="56" t="s">
+      <c r="B222" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C222" s="56"/>
-      <c r="D222" s="56"/>
+      <c r="C222" s="59"/>
+      <c r="D222" s="59"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
@@ -7240,14 +7240,66 @@
   </sheetData>
   <autoFilter ref="A5:D69"/>
   <mergeCells count="80">
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B162:D162"/>
     <mergeCell ref="B205:D205"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B178:D178"/>
@@ -7260,66 +7312,14 @@
     <mergeCell ref="B199:D199"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7356,10 +7356,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -7368,10 +7368,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -7380,8 +7380,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -7402,11 +7402,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -7511,11 +7511,11 @@
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
@@ -7530,11 +7530,11 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
@@ -7583,19 +7583,19 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -7629,11 +7629,11 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -7650,11 +7650,11 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -7726,11 +7726,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
@@ -7807,11 +7807,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -7826,19 +7826,19 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
@@ -7872,11 +7872,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
@@ -7891,19 +7891,19 @@
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
@@ -7937,11 +7937,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
@@ -7956,19 +7956,19 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -8002,11 +8002,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -8021,19 +8021,19 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
@@ -8067,11 +8067,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="70"/>
-      <c r="D62" s="71"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="58"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
@@ -8086,11 +8086,11 @@
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -8121,11 +8121,11 @@
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="32">
@@ -8140,19 +8140,19 @@
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="23"/>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
@@ -8187,11 +8187,11 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="71"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
@@ -8208,11 +8208,11 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="71"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="D79" s="14" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy/mm/dd")</f>
-        <v>2018/11/04</v>
+        <v>2018/11/07</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8318,11 +8318,11 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="71"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
@@ -8337,19 +8337,19 @@
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="23"/>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="62"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
@@ -8383,11 +8383,11 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="71"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
@@ -8402,11 +8402,11 @@
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
@@ -8437,11 +8437,11 @@
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32">
@@ -8456,19 +8456,19 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="23"/>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="68"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="62"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="25">
@@ -8502,11 +8502,11 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
-      <c r="B100" s="69" t="s">
+      <c r="B100" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
@@ -8523,11 +8523,11 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
-      <c r="B102" s="69" t="s">
+      <c r="B102" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="70"/>
-      <c r="D102" s="71"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="D105" s="14" t="str">
         <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>CPO20181102</v>
+        <v>CPO20181105</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="D107" s="14" t="str">
         <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
-        <v>2018/10/23</v>
+        <v>2018/10/26</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="D108" s="14" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
-        <v>2018/12/02</v>
+        <v>2018/12/05</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8723,11 +8723,11 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
-      <c r="B116" s="69" t="s">
+      <c r="B116" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="70"/>
-      <c r="D116" s="71"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
@@ -8742,19 +8742,19 @@
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
-      <c r="B118" s="56" t="s">
+      <c r="B118" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="56"/>
-      <c r="D118" s="56"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
-      <c r="B119" s="66" t="s">
+      <c r="B119" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="62"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="25">
@@ -8788,11 +8788,11 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
-      <c r="B122" s="69" t="s">
+      <c r="B122" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="70"/>
-      <c r="D122" s="71"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="58"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
@@ -8807,19 +8807,19 @@
     </row>
     <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
-      <c r="B124" s="56" t="s">
+      <c r="B124" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="62"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="25">
@@ -8853,11 +8853,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
-      <c r="B128" s="69" t="s">
+      <c r="B128" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="70"/>
-      <c r="D128" s="71"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="58"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
@@ -8872,19 +8872,19 @@
     </row>
     <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="59"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
-      <c r="B131" s="66" t="s">
+      <c r="B131" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="62"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="25">
@@ -8918,11 +8918,11 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
-      <c r="B134" s="69" t="s">
+      <c r="B134" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="70"/>
-      <c r="D134" s="71"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="58"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
@@ -8937,19 +8937,19 @@
     </row>
     <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="23"/>
-      <c r="B137" s="66" t="s">
+      <c r="B137" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="62"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="25">
@@ -8983,11 +8983,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
-      <c r="B140" s="69" t="s">
+      <c r="B140" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C140" s="70"/>
-      <c r="D140" s="71"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="58"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
@@ -9002,11 +9002,11 @@
     </row>
     <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A142" s="23"/>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="56"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="59"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
@@ -9038,11 +9038,38 @@
   </sheetData>
   <autoFilter ref="A5:D66"/>
   <mergeCells count="53">
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B97:D97"/>
@@ -9059,38 +9086,11 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B134:D134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9127,10 +9127,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -9139,10 +9139,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -9151,8 +9151,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -9173,11 +9173,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -9282,11 +9282,11 @@
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
@@ -9335,11 +9335,11 @@
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
@@ -9369,19 +9369,19 @@
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -9415,11 +9415,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -9436,11 +9436,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="D31" s="14" t="str">
         <f ca="1">"CPO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>CPO20181102</v>
+        <v>CPO20181105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="D32" s="14" t="str">
         <f ca="1">TEXT(TODAY()-10,"yyyy/mm/dd")</f>
-        <v>2018/10/23</v>
+        <v>2018/10/26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="D33" s="14" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy/mm/dd")</f>
-        <v>2018/12/02</v>
+        <v>2018/12/05</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -9623,11 +9623,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
@@ -9642,19 +9642,19 @@
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="68"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
@@ -9688,11 +9688,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
@@ -9707,19 +9707,19 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
@@ -9753,11 +9753,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
@@ -9772,19 +9772,19 @@
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -9818,11 +9818,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -9837,19 +9837,19 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
@@ -9883,11 +9883,11 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -9902,11 +9902,11 @@
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
@@ -9937,12 +9937,11 @@
   </sheetData>
   <autoFilter ref="A5:D17"/>
   <mergeCells count="23">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B25:D25"/>
@@ -9955,11 +9954,12 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9973,11 +9973,11 @@
   </sheetPr>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9996,10 +9996,10 @@
       <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -10008,10 +10008,10 @@
       <c r="B2" s="28">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
@@ -10020,8 +10020,8 @@
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -10042,11 +10042,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
@@ -10196,11 +10196,11 @@
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
@@ -10249,11 +10249,11 @@
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
@@ -10283,19 +10283,19 @@
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
@@ -10329,11 +10329,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -10350,11 +10350,11 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
@@ -10425,11 +10425,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="D39" s="14" t="str">
         <f ca="1">TEXT(TODAY()-1,"yyyy/mm/dd")</f>
-        <v>2018/11/01</v>
+        <v>2018/11/04</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="D42" s="14" t="str">
         <f ca="1">"Reveived "&amp;TEXT(TODAY(),"yyyy/mm/dd")</f>
-        <v>Reveived 2018/11/02</v>
+        <v>Reveived 2018/11/05</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -10552,11 +10552,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -10586,11 +10586,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
@@ -10622,19 +10622,19 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -10668,11 +10668,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -10689,11 +10689,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -10725,11 +10725,11 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="D62" s="14" t="str">
         <f ca="1">"DO" &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>DO20181102</v>
+        <v>DO20181105</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="D63" s="14" t="str">
         <f ca="1">TEXT(TODAY()+7,"yyyy/mm/dd")</f>
-        <v>2018/11/09</v>
+        <v>2018/11/12</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -10847,16 +10847,16 @@
       </c>
       <c r="D69" s="14" t="str">
         <f ca="1">"Automation " &amp; TEXT(TODAY(),"yyyymmdd")</f>
-        <v>Automation 20181102</v>
+        <v>Automation 20181105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
@@ -10871,19 +10871,19 @@
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
@@ -10917,11 +10917,11 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
@@ -10936,19 +10936,19 @@
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="23"/>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="62"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
@@ -10982,11 +10982,11 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="70"/>
-      <c r="D82" s="71"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
@@ -11001,19 +11001,19 @@
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A84" s="23"/>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="23"/>
-      <c r="B85" s="66" t="s">
+      <c r="B85" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
@@ -11047,11 +11047,11 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="71"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
@@ -11066,19 +11066,19 @@
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="25">
@@ -11112,11 +11112,11 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
-      <c r="B94" s="69" t="s">
+      <c r="B94" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C94" s="70"/>
-      <c r="D94" s="71"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -11131,11 +11131,11 @@
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="23"/>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
@@ -11166,6 +11166,21 @@
   </sheetData>
   <autoFilter ref="A5:D63"/>
   <mergeCells count="31">
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B88:D88"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B58:D58"/>
@@ -11182,21 +11197,6 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
